--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>user_id</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Дата сделки</t>
   </si>
   <si>
+    <t>Операция</t>
+  </si>
+  <si>
     <t>RUB</t>
   </si>
   <si>
@@ -44,6 +47,12 @@
   </si>
   <si>
     <t>1Fu4oDBsNExmpidzXq9xUXkSZs9CLp8xdB</t>
+  </si>
+  <si>
+    <t>Покупка</t>
+  </si>
+  <si>
+    <t>Пополнение</t>
   </si>
 </sst>
 </file>
@@ -405,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +442,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,16 +463,19 @@
         <v>5000</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2">
         <v>44992.63171659013</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -477,16 +492,19 @@
         <v>16726.420503</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2">
         <v>44995.67953494444</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,16 +521,19 @@
         <v>554</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2">
         <v>45006.47390384205</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,16 +550,19 @@
         <v>4432</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
         <v>45006.47390384205</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -555,16 +579,19 @@
         <v>4433</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
         <v>45006.47577683252</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -581,13 +608,161 @@
         <v>443</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
         <v>45006.47890390269</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>381252111</v>
+      </c>
+      <c r="C8">
+        <v>2175729.597038</v>
+      </c>
+      <c r="D8">
+        <v>0.00054</v>
+      </c>
+      <c r="E8">
+        <v>43.736</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45007.65361555788</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>381252111</v>
+      </c>
+      <c r="C9">
+        <v>80940.46906850001</v>
+      </c>
+      <c r="D9">
+        <v>5E-05</v>
+      </c>
+      <c r="E9">
+        <v>4.047</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45007.65825357329</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>381252111</v>
+      </c>
+      <c r="C10">
+        <v>80883.57770150001</v>
+      </c>
+      <c r="D10">
+        <v>0.0001</v>
+      </c>
+      <c r="E10">
+        <v>8.087999999999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45007.67056991082</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>381252111</v>
+      </c>
+      <c r="C11">
+        <v>79243.02099999999</v>
+      </c>
+      <c r="D11">
+        <v>0.00035</v>
+      </c>
+      <c r="E11">
+        <v>27.735</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45008.42931037529</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>381252111</v>
+      </c>
+      <c r="C12">
+        <v>69968</v>
+      </c>
+      <c r="D12">
+        <v>0.00076249</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45008.44430586498</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
